--- a/Code/Results/Cases/Case_4_112/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_112/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9969231887606005</v>
+        <v>1.025287330836978</v>
       </c>
       <c r="D2">
-        <v>1.014717527789018</v>
+        <v>1.030465776721949</v>
       </c>
       <c r="E2">
-        <v>1.005119654620357</v>
+        <v>1.028914531964831</v>
       </c>
       <c r="F2">
-        <v>0.9736142236442206</v>
+        <v>1.023784189986237</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039095231866738</v>
+        <v>1.032515387450662</v>
       </c>
       <c r="J2">
-        <v>1.019196317797465</v>
+        <v>1.030457194955088</v>
       </c>
       <c r="K2">
-        <v>1.025975562271653</v>
+        <v>1.033276708156985</v>
       </c>
       <c r="L2">
-        <v>1.016508122355819</v>
+        <v>1.031729963737781</v>
       </c>
       <c r="M2">
-        <v>0.9854538187900062</v>
+        <v>1.026614611126441</v>
       </c>
       <c r="N2">
-        <v>1.010280016828712</v>
+        <v>1.014176909803406</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.001167732331071</v>
+        <v>1.026166700969666</v>
       </c>
       <c r="D3">
-        <v>1.017803681554057</v>
+        <v>1.031124049102863</v>
       </c>
       <c r="E3">
-        <v>1.00885679866892</v>
+        <v>1.029741124877531</v>
       </c>
       <c r="F3">
-        <v>0.9805396462470211</v>
+        <v>1.025298023884957</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040267120531232</v>
+        <v>1.032706435531005</v>
       </c>
       <c r="J3">
-        <v>1.021626614326212</v>
+        <v>1.030976196468509</v>
       </c>
       <c r="K3">
-        <v>1.028213718251342</v>
+        <v>1.033743744424053</v>
       </c>
       <c r="L3">
-        <v>1.019377595611989</v>
+        <v>1.032364542180733</v>
       </c>
       <c r="M3">
-        <v>0.9914277340933423</v>
+        <v>1.027933472828708</v>
       </c>
       <c r="N3">
-        <v>1.011100031720571</v>
+        <v>1.014350681409861</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.003855581185729</v>
+        <v>1.02673586711347</v>
       </c>
       <c r="D4">
-        <v>1.019760339791765</v>
+        <v>1.031550076379495</v>
       </c>
       <c r="E4">
-        <v>1.011228336422993</v>
+        <v>1.030276490438439</v>
       </c>
       <c r="F4">
-        <v>0.9849117862061194</v>
+        <v>1.026277740133164</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04099970828087</v>
+        <v>1.032828930143585</v>
       </c>
       <c r="J4">
-        <v>1.023161172381661</v>
+        <v>1.031311555537793</v>
       </c>
       <c r="K4">
-        <v>1.029625984124779</v>
+        <v>1.034045346811891</v>
       </c>
       <c r="L4">
-        <v>1.021193108170262</v>
+        <v>1.03277501599953</v>
       </c>
       <c r="M4">
-        <v>0.9951957896132051</v>
+        <v>1.028786542648162</v>
       </c>
       <c r="N4">
-        <v>1.01161765843357</v>
+        <v>1.014462915354156</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.0049720348596</v>
+        <v>1.026975181211041</v>
       </c>
       <c r="D5">
-        <v>1.020573599761225</v>
+        <v>1.031729196771104</v>
       </c>
       <c r="E5">
-        <v>1.012214576765637</v>
+        <v>1.030501678210586</v>
       </c>
       <c r="F5">
-        <v>0.9867250299809898</v>
+        <v>1.02668965650833</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041301695769574</v>
+        <v>1.03288015699531</v>
       </c>
       <c r="J5">
-        <v>1.023797511126435</v>
+        <v>1.031452427762252</v>
       </c>
       <c r="K5">
-        <v>1.03021136356389</v>
+        <v>1.034171996043313</v>
       </c>
       <c r="L5">
-        <v>1.021946823789204</v>
+        <v>1.032947544997897</v>
       </c>
       <c r="M5">
-        <v>0.9967576599718903</v>
+        <v>1.029145099742343</v>
       </c>
       <c r="N5">
-        <v>1.01183226308705</v>
+        <v>1.014510048570951</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.005158714327252</v>
+        <v>1.02701536523793</v>
       </c>
       <c r="D6">
-        <v>1.020709612350376</v>
+        <v>1.031759272933817</v>
       </c>
       <c r="E6">
-        <v>1.012379551794411</v>
+        <v>1.030539495249293</v>
       </c>
       <c r="F6">
-        <v>0.9870280634240771</v>
+        <v>1.026758821765275</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041352053896655</v>
+        <v>1.03288874237571</v>
       </c>
       <c r="J6">
-        <v>1.023903848433947</v>
+        <v>1.031476074209365</v>
       </c>
       <c r="K6">
-        <v>1.030309170128155</v>
+        <v>1.034193252524772</v>
       </c>
       <c r="L6">
-        <v>1.022072826994165</v>
+        <v>1.032976511356928</v>
       </c>
       <c r="M6">
-        <v>0.9970186328330433</v>
+        <v>1.029205298853292</v>
       </c>
       <c r="N6">
-        <v>1.011868122733693</v>
+        <v>1.014517959512643</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.003870551738503</v>
+        <v>1.026739064696673</v>
       </c>
       <c r="D7">
-        <v>1.019771242810294</v>
+        <v>1.031552469723253</v>
       </c>
       <c r="E7">
-        <v>1.011241556341534</v>
+        <v>1.030279498937521</v>
       </c>
       <c r="F7">
-        <v>0.9849361106574724</v>
+        <v>1.026283244003014</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041003766792271</v>
+        <v>1.032829615700056</v>
       </c>
       <c r="J7">
-        <v>1.023169709311387</v>
+        <v>1.031313438322679</v>
       </c>
       <c r="K7">
-        <v>1.029633838401032</v>
+        <v>1.034047039673142</v>
       </c>
       <c r="L7">
-        <v>1.021203216343912</v>
+        <v>1.03277732147541</v>
       </c>
       <c r="M7">
-        <v>0.9952167452949234</v>
+        <v>1.028791333989754</v>
       </c>
       <c r="N7">
-        <v>1.011620537671698</v>
+        <v>1.014463545346913</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9983701221819081</v>
+        <v>1.025584485769755</v>
       </c>
       <c r="D8">
-        <v>1.015769052615382</v>
+        <v>1.030688225653635</v>
       </c>
       <c r="E8">
-        <v>1.006392554012977</v>
+        <v>1.029193777976344</v>
       </c>
       <c r="F8">
-        <v>0.9759781038748941</v>
+        <v>1.024295765761419</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039496699022925</v>
+        <v>1.03258018609424</v>
       </c>
       <c r="J8">
-        <v>1.020025709602174</v>
+        <v>1.03063269100284</v>
       </c>
       <c r="K8">
-        <v>1.026739575996103</v>
+        <v>1.033434669479947</v>
       </c>
       <c r="L8">
-        <v>1.01748662479313</v>
+        <v>1.031944451378765</v>
       </c>
       <c r="M8">
-        <v>0.9874936081576653</v>
+        <v>1.027060395432746</v>
       </c>
       <c r="N8">
-        <v>1.010559894793736</v>
+        <v>1.014235679683374</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9882032494421784</v>
+        <v>1.023551174572408</v>
       </c>
       <c r="D9">
-        <v>1.008392426845527</v>
+        <v>1.029165975964639</v>
       </c>
       <c r="E9">
-        <v>0.997470921326293</v>
+        <v>1.027284495901501</v>
       </c>
       <c r="F9">
-        <v>0.9592936196003073</v>
+        <v>1.020794643215804</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036636434789738</v>
+        <v>1.032132044351775</v>
       </c>
       <c r="J9">
-        <v>1.014179570944908</v>
+        <v>1.02942954348563</v>
       </c>
       <c r="K9">
-        <v>1.02135079457889</v>
+        <v>1.03235100956728</v>
       </c>
       <c r="L9">
-        <v>1.010605164770967</v>
+        <v>1.030475769379538</v>
       </c>
       <c r="M9">
-        <v>0.9730835623569868</v>
+        <v>1.024007633940238</v>
       </c>
       <c r="N9">
-        <v>1.00858662289614</v>
+        <v>1.013832565914037</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9810683677237294</v>
+        <v>1.022196465849242</v>
       </c>
       <c r="D10">
-        <v>1.003232994264073</v>
+        <v>1.028151635842156</v>
       </c>
       <c r="E10">
-        <v>0.9912397245011217</v>
+        <v>1.026014302260145</v>
       </c>
       <c r="F10">
-        <v>0.9474673971526048</v>
+        <v>1.018461010386046</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034580239757752</v>
+        <v>1.031827505009199</v>
       </c>
       <c r="J10">
-        <v>1.010053777148281</v>
+        <v>1.028625051330736</v>
       </c>
       <c r="K10">
-        <v>1.017544120323069</v>
+        <v>1.0316255120709</v>
       </c>
       <c r="L10">
-        <v>1.005768970560628</v>
+        <v>1.029495962100299</v>
       </c>
       <c r="M10">
-        <v>0.9628546621833163</v>
+        <v>1.021970466819431</v>
       </c>
       <c r="N10">
-        <v>1.007193579706865</v>
+        <v>1.013562766303514</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9778848291110394</v>
+        <v>1.02161006331086</v>
       </c>
       <c r="D11">
-        <v>1.000935726788298</v>
+        <v>1.0277125424091</v>
       </c>
       <c r="E11">
-        <v>0.9884669231559643</v>
+        <v>1.025464933599919</v>
       </c>
       <c r="F11">
-        <v>0.9421546270188035</v>
+        <v>1.017450567795399</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033651530615556</v>
+        <v>1.031694268279657</v>
       </c>
       <c r="J11">
-        <v>1.008207470333492</v>
+        <v>1.028276132318078</v>
       </c>
       <c r="K11">
-        <v>1.015840018220997</v>
+        <v>1.031310643323756</v>
       </c>
       <c r="L11">
-        <v>1.00360966386337</v>
+        <v>1.029071536876947</v>
       </c>
       <c r="M11">
-        <v>0.9582565861182899</v>
+        <v>1.021087827411172</v>
       </c>
       <c r="N11">
-        <v>1.006570143211754</v>
+        <v>1.01344569103889</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9766873053060533</v>
+        <v>1.021392276864082</v>
       </c>
       <c r="D12">
-        <v>1.000072375244589</v>
+        <v>1.027549462730734</v>
       </c>
       <c r="E12">
-        <v>0.9874250718373694</v>
+        <v>1.025260969388868</v>
       </c>
       <c r="F12">
-        <v>0.9401499787085206</v>
+        <v>1.017075244552749</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033300526822477</v>
+        <v>1.031644572691573</v>
       </c>
       <c r="J12">
-        <v>1.007512153313394</v>
+        <v>1.028146442986949</v>
       </c>
       <c r="K12">
-        <v>1.015198188790319</v>
+        <v>1.031193578680814</v>
       </c>
       <c r="L12">
-        <v>1.002797219209113</v>
+        <v>1.028913862403502</v>
       </c>
       <c r="M12">
-        <v>0.9565212391451881</v>
+        <v>1.020759891362581</v>
       </c>
       <c r="N12">
-        <v>1.006335356378713</v>
+        <v>1.013402166587142</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9769448726985015</v>
+        <v>1.021438991454686</v>
       </c>
       <c r="D13">
-        <v>1.000258030944889</v>
+        <v>1.027584442995497</v>
       </c>
       <c r="E13">
-        <v>0.9876491032170261</v>
+        <v>1.025304716061406</v>
       </c>
       <c r="F13">
-        <v>0.9405814382826801</v>
+        <v>1.017155752741248</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033376096355914</v>
+        <v>1.03165524186205</v>
       </c>
       <c r="J13">
-        <v>1.007661740867762</v>
+        <v>1.028174265645158</v>
       </c>
       <c r="K13">
-        <v>1.015336271856241</v>
+        <v>1.031218694342798</v>
       </c>
       <c r="L13">
-        <v>1.002971971142508</v>
+        <v>1.028947685196397</v>
       </c>
       <c r="M13">
-        <v>0.9568947528370865</v>
+        <v>1.020830238652454</v>
       </c>
       <c r="N13">
-        <v>1.006385867395186</v>
+        <v>1.013411504424315</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.97778615309877</v>
+        <v>1.021592060410797</v>
       </c>
       <c r="D14">
-        <v>1.000864570123186</v>
+        <v>1.027699061796488</v>
       </c>
       <c r="E14">
-        <v>0.9883810505772037</v>
+        <v>1.025448071897572</v>
       </c>
       <c r="F14">
-        <v>0.9419895745202265</v>
+        <v>1.017419543486978</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033622641430443</v>
+        <v>1.031690164618699</v>
       </c>
       <c r="J14">
-        <v>1.008150192585111</v>
+        <v>1.028265413896214</v>
       </c>
       <c r="K14">
-        <v>1.015787147798642</v>
+        <v>1.031300968932666</v>
       </c>
       <c r="L14">
-        <v>1.003542722300415</v>
+        <v>1.029058503944512</v>
       </c>
       <c r="M14">
-        <v>0.9581137136829514</v>
+        <v>1.021060721864131</v>
       </c>
       <c r="N14">
-        <v>1.006550802301758</v>
+        <v>1.013442094058186</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9783024763574576</v>
+        <v>1.02168637517105</v>
       </c>
       <c r="D15">
-        <v>1.001236930748317</v>
+        <v>1.027769684786072</v>
       </c>
       <c r="E15">
-        <v>0.9888304276078732</v>
+        <v>1.025536410867392</v>
       </c>
       <c r="F15">
-        <v>0.9428529563252332</v>
+        <v>1.01758207353074</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033773736959616</v>
+        <v>1.031711654451452</v>
       </c>
       <c r="J15">
-        <v>1.00844986609403</v>
+        <v>1.028321562046778</v>
       </c>
       <c r="K15">
-        <v>1.016063759896507</v>
+        <v>1.031351646672632</v>
       </c>
       <c r="L15">
-        <v>1.003892986789058</v>
+        <v>1.029126779855667</v>
       </c>
       <c r="M15">
-        <v>0.9588610578871967</v>
+        <v>1.02120271885079</v>
       </c>
       <c r="N15">
-        <v>1.006651992680239</v>
+        <v>1.013460936377302</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9812775929567511</v>
+        <v>1.022235387588181</v>
       </c>
       <c r="D16">
-        <v>1.003384079007546</v>
+        <v>1.028180779674188</v>
       </c>
       <c r="E16">
-        <v>0.9914221154982403</v>
+        <v>1.026050775447308</v>
       </c>
       <c r="F16">
-        <v>0.9478157442569221</v>
+        <v>1.018528070439396</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034641043840769</v>
+        <v>1.031836318659522</v>
       </c>
       <c r="J16">
-        <v>1.010175006105288</v>
+        <v>1.028648195969727</v>
       </c>
       <c r="K16">
-        <v>1.017656001543952</v>
+        <v>1.031646393656971</v>
       </c>
       <c r="L16">
-        <v>1.005910854046361</v>
+        <v>1.029524126414622</v>
       </c>
       <c r="M16">
-        <v>0.9631560935189559</v>
+        <v>1.022029033088729</v>
       </c>
       <c r="N16">
-        <v>1.007234514214477</v>
+        <v>1.013570530940305</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9831180169752821</v>
+        <v>1.022579821015603</v>
       </c>
       <c r="D17">
-        <v>1.004713635137233</v>
+        <v>1.028438681983647</v>
       </c>
       <c r="E17">
-        <v>0.9930273550707361</v>
+        <v>1.026373592796934</v>
       </c>
       <c r="F17">
-        <v>0.9508757595723656</v>
+        <v>1.019121475193425</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035174624273891</v>
+        <v>1.031914150774395</v>
       </c>
       <c r="J17">
-        <v>1.011240768042344</v>
+        <v>1.028852932677753</v>
       </c>
       <c r="K17">
-        <v>1.01863951895765</v>
+        <v>1.031831087176648</v>
       </c>
       <c r="L17">
-        <v>1.007158754602896</v>
+        <v>1.029773328214729</v>
       </c>
       <c r="M17">
-        <v>0.9658036629606606</v>
+        <v>1.022547212446304</v>
       </c>
       <c r="N17">
-        <v>1.007594377898731</v>
+        <v>1.01363920979404</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9841824903763802</v>
+        <v>1.022780742032927</v>
       </c>
       <c r="D18">
-        <v>1.005483084449351</v>
+        <v>1.028589123809222</v>
       </c>
       <c r="E18">
-        <v>0.9939565112420972</v>
+        <v>1.02656194778668</v>
       </c>
       <c r="F18">
-        <v>0.9526422716447833</v>
+        <v>1.019467601956717</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035482171154803</v>
+        <v>1.03195941681235</v>
       </c>
       <c r="J18">
-        <v>1.011856676352454</v>
+        <v>1.028972297263979</v>
       </c>
       <c r="K18">
-        <v>1.01920783918078</v>
+        <v>1.031938745948273</v>
       </c>
       <c r="L18">
-        <v>1.007880385011993</v>
+        <v>1.029918667736748</v>
       </c>
       <c r="M18">
-        <v>0.9673317984846111</v>
+        <v>1.022849406609804</v>
       </c>
       <c r="N18">
-        <v>1.007802340025923</v>
+        <v>1.013679244854283</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9845439447408706</v>
+        <v>1.02284925409391</v>
       </c>
       <c r="D19">
-        <v>1.005744435100117</v>
+        <v>1.028640422557345</v>
       </c>
       <c r="E19">
-        <v>0.9942721363275643</v>
+        <v>1.02662618231497</v>
       </c>
       <c r="F19">
-        <v>0.9532415643898796</v>
+        <v>1.019585623044197</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035586420225135</v>
+        <v>1.031974828946851</v>
       </c>
       <c r="J19">
-        <v>1.012065728158304</v>
+        <v>1.029012988191365</v>
       </c>
       <c r="K19">
-        <v>1.01940072798861</v>
+        <v>1.031975442952046</v>
       </c>
       <c r="L19">
-        <v>1.008125399370768</v>
+        <v>1.029968222089782</v>
       </c>
       <c r="M19">
-        <v>0.9678501729351066</v>
+        <v>1.022952438479962</v>
       </c>
       <c r="N19">
-        <v>1.007872925662437</v>
+        <v>1.013692891674994</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9829214954582279</v>
+        <v>1.022542864619474</v>
       </c>
       <c r="D20">
-        <v>1.004571616801841</v>
+        <v>1.028411010283404</v>
       </c>
       <c r="E20">
-        <v>0.9928558727390384</v>
+        <v>1.026338951227168</v>
       </c>
       <c r="F20">
-        <v>0.9505493628066619</v>
+        <v>1.019057808122576</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035117758861498</v>
+        <v>1.031905813789368</v>
       </c>
       <c r="J20">
-        <v>1.011127018503516</v>
+        <v>1.028830972041052</v>
       </c>
       <c r="K20">
-        <v>1.018534553356791</v>
+        <v>1.031811278530653</v>
       </c>
       <c r="L20">
-        <v>1.00702551710279</v>
+        <v>1.029746592838605</v>
       </c>
       <c r="M20">
-        <v>0.9655212880363854</v>
+        <v>1.022491622021287</v>
       </c>
       <c r="N20">
-        <v>1.007555969829732</v>
+        <v>1.013631843700447</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.977538838952701</v>
+        <v>1.021546984600399</v>
       </c>
       <c r="D21">
-        <v>1.000686241371466</v>
+        <v>1.027665308881012</v>
       </c>
       <c r="E21">
-        <v>0.9881658449590931</v>
+        <v>1.025405854528491</v>
       </c>
       <c r="F21">
-        <v>0.9415757968167685</v>
+        <v>1.017341863726</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033550209125643</v>
+        <v>1.031679886409684</v>
       </c>
       <c r="J21">
-        <v>1.008006622934955</v>
+        <v>1.028238575360874</v>
       </c>
       <c r="K21">
-        <v>1.015654624352849</v>
+        <v>1.031276744105491</v>
       </c>
       <c r="L21">
-        <v>1.003374941875799</v>
+        <v>1.029025871246556</v>
       </c>
       <c r="M21">
-        <v>0.9577555344409528</v>
+        <v>1.020992852670643</v>
       </c>
       <c r="N21">
-        <v>1.006502323303341</v>
+        <v>1.013433087207335</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9740671787483969</v>
+        <v>1.020921006473985</v>
       </c>
       <c r="D22">
-        <v>0.998184931269282</v>
+        <v>1.027196568117061</v>
       </c>
       <c r="E22">
-        <v>0.9851477446124839</v>
+        <v>1.024819733980232</v>
       </c>
       <c r="F22">
-        <v>0.935751567952554</v>
+        <v>1.016262979490509</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032529527824595</v>
+        <v>1.031536647824457</v>
       </c>
       <c r="J22">
-        <v>1.005989347606168</v>
+        <v>1.027865618758127</v>
       </c>
       <c r="K22">
-        <v>1.013792430983152</v>
+        <v>1.03094003425971</v>
       </c>
       <c r="L22">
-        <v>1.001019283225171</v>
+        <v>1.028572585998354</v>
       </c>
       <c r="M22">
-        <v>0.9527130930903949</v>
+        <v>1.020050025945034</v>
       </c>
       <c r="N22">
-        <v>1.005821156082085</v>
+        <v>1.013307904285077</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9759161676480872</v>
+        <v>1.02125283302276</v>
       </c>
       <c r="D23">
-        <v>0.9995166569270072</v>
+        <v>1.027445045661065</v>
       </c>
       <c r="E23">
-        <v>0.9867545129318502</v>
+        <v>1.025130394830335</v>
       </c>
       <c r="F23">
-        <v>0.9388572482625139</v>
+        <v>1.016834918375663</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033074036410203</v>
+        <v>1.03161269396252</v>
       </c>
       <c r="J23">
-        <v>1.007064181027419</v>
+        <v>1.028063376819084</v>
       </c>
       <c r="K23">
-        <v>1.014784661359452</v>
+        <v>1.031118589826243</v>
       </c>
       <c r="L23">
-        <v>1.002273997252817</v>
+        <v>1.02881289415213</v>
       </c>
       <c r="M23">
-        <v>0.9554020755991831</v>
+        <v>1.020549884258946</v>
       </c>
       <c r="N23">
-        <v>1.00618409043983</v>
+        <v>1.013374286636405</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9830103228665458</v>
+        <v>1.022559563565861</v>
       </c>
       <c r="D24">
-        <v>1.004635807456447</v>
+        <v>1.028423513897285</v>
       </c>
       <c r="E24">
-        <v>0.9929333802774175</v>
+        <v>1.02635460407264</v>
       </c>
       <c r="F24">
-        <v>0.950696903962617</v>
+        <v>1.019086576518365</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035143465250434</v>
+        <v>1.03190958132224</v>
       </c>
       <c r="J24">
-        <v>1.011178434700372</v>
+        <v>1.028840895276969</v>
       </c>
       <c r="K24">
-        <v>1.018581999288853</v>
+        <v>1.031820229420868</v>
       </c>
       <c r="L24">
-        <v>1.007085740661969</v>
+        <v>1.029758673452641</v>
       </c>
       <c r="M24">
-        <v>0.9656489308577433</v>
+        <v>1.022516741098273</v>
       </c>
       <c r="N24">
-        <v>1.007573330766137</v>
+        <v>1.013635172195688</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9908915833885158</v>
+        <v>1.024076689220818</v>
       </c>
       <c r="D25">
-        <v>1.0103402126328</v>
+        <v>1.029559430746506</v>
       </c>
       <c r="E25">
-        <v>0.9998250014779665</v>
+        <v>1.027777625031273</v>
       </c>
       <c r="F25">
-        <v>0.9637231079452487</v>
+        <v>1.021699668433681</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037401284256548</v>
+        <v>1.032248919200967</v>
       </c>
       <c r="J25">
-        <v>1.015729418928437</v>
+        <v>1.029741009020861</v>
       </c>
       <c r="K25">
-        <v>1.022780103083199</v>
+        <v>1.032631702391773</v>
       </c>
       <c r="L25">
-        <v>1.012426034680625</v>
+        <v>1.030855581650605</v>
       </c>
       <c r="M25">
-        <v>0.9769119521857356</v>
+        <v>1.024797180551787</v>
       </c>
       <c r="N25">
-        <v>1.009109845629401</v>
+        <v>1.013936967445471</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_112/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_112/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.025287330836978</v>
+        <v>0.9969231887606007</v>
       </c>
       <c r="D2">
-        <v>1.030465776721949</v>
+        <v>1.014717527789018</v>
       </c>
       <c r="E2">
-        <v>1.028914531964831</v>
+        <v>1.005119654620357</v>
       </c>
       <c r="F2">
-        <v>1.023784189986237</v>
+        <v>0.9736142236442215</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.032515387450662</v>
+        <v>1.039095231866738</v>
       </c>
       <c r="J2">
-        <v>1.030457194955088</v>
+        <v>1.019196317797465</v>
       </c>
       <c r="K2">
-        <v>1.033276708156985</v>
+        <v>1.025975562271653</v>
       </c>
       <c r="L2">
-        <v>1.031729963737781</v>
+        <v>1.016508122355819</v>
       </c>
       <c r="M2">
-        <v>1.026614611126441</v>
+        <v>0.9854538187900067</v>
       </c>
       <c r="N2">
-        <v>1.014176909803406</v>
+        <v>1.010280016828712</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.026166700969666</v>
+        <v>1.001167732331071</v>
       </c>
       <c r="D3">
-        <v>1.031124049102863</v>
+        <v>1.017803681554057</v>
       </c>
       <c r="E3">
-        <v>1.029741124877531</v>
+        <v>1.008856798668921</v>
       </c>
       <c r="F3">
-        <v>1.025298023884957</v>
+        <v>0.9805396462470216</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.032706435531005</v>
+        <v>1.040267120531233</v>
       </c>
       <c r="J3">
-        <v>1.030976196468509</v>
+        <v>1.021626614326212</v>
       </c>
       <c r="K3">
-        <v>1.033743744424053</v>
+        <v>1.028213718251343</v>
       </c>
       <c r="L3">
-        <v>1.032364542180733</v>
+        <v>1.01937759561199</v>
       </c>
       <c r="M3">
-        <v>1.027933472828708</v>
+        <v>0.9914277340933427</v>
       </c>
       <c r="N3">
-        <v>1.014350681409861</v>
+        <v>1.011100031720571</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.02673586711347</v>
+        <v>1.003855581185728</v>
       </c>
       <c r="D4">
-        <v>1.031550076379495</v>
+        <v>1.019760339791765</v>
       </c>
       <c r="E4">
-        <v>1.030276490438439</v>
+        <v>1.011228336422991</v>
       </c>
       <c r="F4">
-        <v>1.026277740133164</v>
+        <v>0.9849117862061181</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.032828930143585</v>
+        <v>1.04099970828087</v>
       </c>
       <c r="J4">
-        <v>1.031311555537793</v>
+        <v>1.02316117238166</v>
       </c>
       <c r="K4">
-        <v>1.034045346811891</v>
+        <v>1.029625984124778</v>
       </c>
       <c r="L4">
-        <v>1.03277501599953</v>
+        <v>1.021193108170261</v>
       </c>
       <c r="M4">
-        <v>1.028786542648162</v>
+        <v>0.995195789613204</v>
       </c>
       <c r="N4">
-        <v>1.014462915354156</v>
+        <v>1.011617658433569</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.026975181211041</v>
+        <v>1.004972034859599</v>
       </c>
       <c r="D5">
-        <v>1.031729196771104</v>
+        <v>1.020573599761225</v>
       </c>
       <c r="E5">
-        <v>1.030501678210586</v>
+        <v>1.012214576765637</v>
       </c>
       <c r="F5">
-        <v>1.02668965650833</v>
+        <v>0.986725029980989</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.03288015699531</v>
+        <v>1.041301695769573</v>
       </c>
       <c r="J5">
-        <v>1.031452427762252</v>
+        <v>1.023797511126435</v>
       </c>
       <c r="K5">
-        <v>1.034171996043313</v>
+        <v>1.030211363563889</v>
       </c>
       <c r="L5">
-        <v>1.032947544997897</v>
+        <v>1.021946823789204</v>
       </c>
       <c r="M5">
-        <v>1.029145099742343</v>
+        <v>0.9967576599718895</v>
       </c>
       <c r="N5">
-        <v>1.014510048570951</v>
+        <v>1.01183226308705</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.02701536523793</v>
+        <v>1.005158714327252</v>
       </c>
       <c r="D6">
-        <v>1.031759272933817</v>
+        <v>1.020709612350377</v>
       </c>
       <c r="E6">
-        <v>1.030539495249293</v>
+        <v>1.012379551794411</v>
       </c>
       <c r="F6">
-        <v>1.026758821765275</v>
+        <v>0.9870280634240771</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.03288874237571</v>
+        <v>1.041352053896655</v>
       </c>
       <c r="J6">
-        <v>1.031476074209365</v>
+        <v>1.023903848433948</v>
       </c>
       <c r="K6">
-        <v>1.034193252524772</v>
+        <v>1.030309170128155</v>
       </c>
       <c r="L6">
-        <v>1.032976511356928</v>
+        <v>1.022072826994165</v>
       </c>
       <c r="M6">
-        <v>1.029205298853292</v>
+        <v>0.9970186328330433</v>
       </c>
       <c r="N6">
-        <v>1.014517959512643</v>
+        <v>1.011868122733693</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.026739064696673</v>
+        <v>1.003870551738502</v>
       </c>
       <c r="D7">
-        <v>1.031552469723253</v>
+        <v>1.019771242810292</v>
       </c>
       <c r="E7">
-        <v>1.030279498937521</v>
+        <v>1.011241556341533</v>
       </c>
       <c r="F7">
-        <v>1.026283244003014</v>
+        <v>0.9849361106574707</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.032829615700056</v>
+        <v>1.04100376679227</v>
       </c>
       <c r="J7">
-        <v>1.031313438322679</v>
+        <v>1.023169709311386</v>
       </c>
       <c r="K7">
-        <v>1.034047039673142</v>
+        <v>1.029633838401031</v>
       </c>
       <c r="L7">
-        <v>1.03277732147541</v>
+        <v>1.02120321634391</v>
       </c>
       <c r="M7">
-        <v>1.028791333989754</v>
+        <v>0.9952167452949217</v>
       </c>
       <c r="N7">
-        <v>1.014463545346913</v>
+        <v>1.011620537671697</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.025584485769755</v>
+        <v>0.9983701221819083</v>
       </c>
       <c r="D8">
-        <v>1.030688225653635</v>
+        <v>1.015769052615382</v>
       </c>
       <c r="E8">
-        <v>1.029193777976344</v>
+        <v>1.006392554012977</v>
       </c>
       <c r="F8">
-        <v>1.024295765761419</v>
+        <v>0.9759781038748941</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03258018609424</v>
+        <v>1.039496699022926</v>
       </c>
       <c r="J8">
-        <v>1.03063269100284</v>
+        <v>1.020025709602174</v>
       </c>
       <c r="K8">
-        <v>1.033434669479947</v>
+        <v>1.026739575996104</v>
       </c>
       <c r="L8">
-        <v>1.031944451378765</v>
+        <v>1.01748662479313</v>
       </c>
       <c r="M8">
-        <v>1.027060395432746</v>
+        <v>0.9874936081576652</v>
       </c>
       <c r="N8">
-        <v>1.014235679683374</v>
+        <v>1.010559894793736</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.023551174572408</v>
+        <v>0.9882032494421782</v>
       </c>
       <c r="D9">
-        <v>1.029165975964639</v>
+        <v>1.008392426845527</v>
       </c>
       <c r="E9">
-        <v>1.027284495901501</v>
+        <v>0.997470921326293</v>
       </c>
       <c r="F9">
-        <v>1.020794643215804</v>
+        <v>0.9592936196003068</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032132044351775</v>
+        <v>1.036636434789738</v>
       </c>
       <c r="J9">
-        <v>1.02942954348563</v>
+        <v>1.014179570944908</v>
       </c>
       <c r="K9">
-        <v>1.03235100956728</v>
+        <v>1.02135079457889</v>
       </c>
       <c r="L9">
-        <v>1.030475769379538</v>
+        <v>1.010605164770967</v>
       </c>
       <c r="M9">
-        <v>1.024007633940238</v>
+        <v>0.9730835623569865</v>
       </c>
       <c r="N9">
-        <v>1.013832565914037</v>
+        <v>1.00858662289614</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.022196465849242</v>
+        <v>0.9810683677237291</v>
       </c>
       <c r="D10">
-        <v>1.028151635842156</v>
+        <v>1.003232994264073</v>
       </c>
       <c r="E10">
-        <v>1.026014302260145</v>
+        <v>0.9912397245011213</v>
       </c>
       <c r="F10">
-        <v>1.018461010386046</v>
+        <v>0.947467397152605</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031827505009199</v>
+        <v>1.034580239757752</v>
       </c>
       <c r="J10">
-        <v>1.028625051330736</v>
+        <v>1.010053777148281</v>
       </c>
       <c r="K10">
-        <v>1.0316255120709</v>
+        <v>1.017544120323068</v>
       </c>
       <c r="L10">
-        <v>1.029495962100299</v>
+        <v>1.005768970560628</v>
       </c>
       <c r="M10">
-        <v>1.021970466819431</v>
+        <v>0.9628546621833163</v>
       </c>
       <c r="N10">
-        <v>1.013562766303514</v>
+        <v>1.007193579706865</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.02161006331086</v>
+        <v>0.9778848291110398</v>
       </c>
       <c r="D11">
-        <v>1.0277125424091</v>
+        <v>1.000935726788298</v>
       </c>
       <c r="E11">
-        <v>1.025464933599919</v>
+        <v>0.9884669231559645</v>
       </c>
       <c r="F11">
-        <v>1.017450567795399</v>
+        <v>0.9421546270188036</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031694268279657</v>
+        <v>1.033651530615556</v>
       </c>
       <c r="J11">
-        <v>1.028276132318078</v>
+        <v>1.008207470333492</v>
       </c>
       <c r="K11">
-        <v>1.031310643323756</v>
+        <v>1.015840018220997</v>
       </c>
       <c r="L11">
-        <v>1.029071536876947</v>
+        <v>1.00360966386337</v>
       </c>
       <c r="M11">
-        <v>1.021087827411172</v>
+        <v>0.9582565861182901</v>
       </c>
       <c r="N11">
-        <v>1.01344569103889</v>
+        <v>1.006570143211754</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.021392276864082</v>
+        <v>0.9766873053060537</v>
       </c>
       <c r="D12">
-        <v>1.027549462730734</v>
+        <v>1.00007237524459</v>
       </c>
       <c r="E12">
-        <v>1.025260969388868</v>
+        <v>0.9874250718373698</v>
       </c>
       <c r="F12">
-        <v>1.017075244552749</v>
+        <v>0.9401499787085206</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031644572691573</v>
+        <v>1.033300526822478</v>
       </c>
       <c r="J12">
-        <v>1.028146442986949</v>
+        <v>1.007512153313394</v>
       </c>
       <c r="K12">
-        <v>1.031193578680814</v>
+        <v>1.015198188790319</v>
       </c>
       <c r="L12">
-        <v>1.028913862403502</v>
+        <v>1.002797219209113</v>
       </c>
       <c r="M12">
-        <v>1.020759891362581</v>
+        <v>0.9565212391451881</v>
       </c>
       <c r="N12">
-        <v>1.013402166587142</v>
+        <v>1.006335356378713</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.021438991454686</v>
+        <v>0.9769448726985016</v>
       </c>
       <c r="D13">
-        <v>1.027584442995497</v>
+        <v>1.000258030944889</v>
       </c>
       <c r="E13">
-        <v>1.025304716061406</v>
+        <v>0.9876491032170264</v>
       </c>
       <c r="F13">
-        <v>1.017155752741248</v>
+        <v>0.9405814382826801</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03165524186205</v>
+        <v>1.033376096355914</v>
       </c>
       <c r="J13">
-        <v>1.028174265645158</v>
+        <v>1.007661740867762</v>
       </c>
       <c r="K13">
-        <v>1.031218694342798</v>
+        <v>1.015336271856241</v>
       </c>
       <c r="L13">
-        <v>1.028947685196397</v>
+        <v>1.002971971142509</v>
       </c>
       <c r="M13">
-        <v>1.020830238652454</v>
+        <v>0.9568947528370866</v>
       </c>
       <c r="N13">
-        <v>1.013411504424315</v>
+        <v>1.006385867395186</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.021592060410797</v>
+        <v>0.9777861530987698</v>
       </c>
       <c r="D14">
-        <v>1.027699061796488</v>
+        <v>1.000864570123186</v>
       </c>
       <c r="E14">
-        <v>1.025448071897572</v>
+        <v>0.9883810505772034</v>
       </c>
       <c r="F14">
-        <v>1.017419543486978</v>
+        <v>0.9419895745202265</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031690164618699</v>
+        <v>1.033622641430443</v>
       </c>
       <c r="J14">
-        <v>1.028265413896214</v>
+        <v>1.008150192585111</v>
       </c>
       <c r="K14">
-        <v>1.031300968932666</v>
+        <v>1.015787147798642</v>
       </c>
       <c r="L14">
-        <v>1.029058503944512</v>
+        <v>1.003542722300415</v>
       </c>
       <c r="M14">
-        <v>1.021060721864131</v>
+        <v>0.9581137136829512</v>
       </c>
       <c r="N14">
-        <v>1.013442094058186</v>
+        <v>1.006550802301758</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.02168637517105</v>
+        <v>0.9783024763574575</v>
       </c>
       <c r="D15">
-        <v>1.027769684786072</v>
+        <v>1.001236930748317</v>
       </c>
       <c r="E15">
-        <v>1.025536410867392</v>
+        <v>0.9888304276078734</v>
       </c>
       <c r="F15">
-        <v>1.01758207353074</v>
+        <v>0.9428529563252325</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031711654451452</v>
+        <v>1.033773736959616</v>
       </c>
       <c r="J15">
-        <v>1.028321562046778</v>
+        <v>1.008449866094029</v>
       </c>
       <c r="K15">
-        <v>1.031351646672632</v>
+        <v>1.016063759896507</v>
       </c>
       <c r="L15">
-        <v>1.029126779855667</v>
+        <v>1.003892986789058</v>
       </c>
       <c r="M15">
-        <v>1.02120271885079</v>
+        <v>0.9588610578871962</v>
       </c>
       <c r="N15">
-        <v>1.013460936377302</v>
+        <v>1.006651992680239</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.022235387588181</v>
+        <v>0.9812775929567501</v>
       </c>
       <c r="D16">
-        <v>1.028180779674188</v>
+        <v>1.003384079007545</v>
       </c>
       <c r="E16">
-        <v>1.026050775447308</v>
+        <v>0.9914221154982392</v>
       </c>
       <c r="F16">
-        <v>1.018528070439396</v>
+        <v>0.9478157442569216</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031836318659522</v>
+        <v>1.034641043840769</v>
       </c>
       <c r="J16">
-        <v>1.028648195969727</v>
+        <v>1.010175006105287</v>
       </c>
       <c r="K16">
-        <v>1.031646393656971</v>
+        <v>1.017656001543951</v>
       </c>
       <c r="L16">
-        <v>1.029524126414622</v>
+        <v>1.00591085404636</v>
       </c>
       <c r="M16">
-        <v>1.022029033088729</v>
+        <v>0.9631560935189553</v>
       </c>
       <c r="N16">
-        <v>1.013570530940305</v>
+        <v>1.007234514214477</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.022579821015603</v>
+        <v>0.9831180169752812</v>
       </c>
       <c r="D17">
-        <v>1.028438681983647</v>
+        <v>1.004713635137233</v>
       </c>
       <c r="E17">
-        <v>1.026373592796934</v>
+        <v>0.9930273550707354</v>
       </c>
       <c r="F17">
-        <v>1.019121475193425</v>
+        <v>0.9508757595723653</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031914150774395</v>
+        <v>1.035174624273891</v>
       </c>
       <c r="J17">
-        <v>1.028852932677753</v>
+        <v>1.011240768042343</v>
       </c>
       <c r="K17">
-        <v>1.031831087176648</v>
+        <v>1.018639518957649</v>
       </c>
       <c r="L17">
-        <v>1.029773328214729</v>
+        <v>1.007158754602895</v>
       </c>
       <c r="M17">
-        <v>1.022547212446304</v>
+        <v>0.96580366296066</v>
       </c>
       <c r="N17">
-        <v>1.01363920979404</v>
+        <v>1.007594377898731</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.022780742032927</v>
+        <v>0.9841824903763793</v>
       </c>
       <c r="D18">
-        <v>1.028589123809222</v>
+        <v>1.00548308444935</v>
       </c>
       <c r="E18">
-        <v>1.02656194778668</v>
+        <v>0.9939565112420972</v>
       </c>
       <c r="F18">
-        <v>1.019467601956717</v>
+        <v>0.952642271644782</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03195941681235</v>
+        <v>1.035482171154803</v>
       </c>
       <c r="J18">
-        <v>1.028972297263979</v>
+        <v>1.011856676352453</v>
       </c>
       <c r="K18">
-        <v>1.031938745948273</v>
+        <v>1.019207839180779</v>
       </c>
       <c r="L18">
-        <v>1.029918667736748</v>
+        <v>1.007880385011993</v>
       </c>
       <c r="M18">
-        <v>1.022849406609804</v>
+        <v>0.9673317984846102</v>
       </c>
       <c r="N18">
-        <v>1.013679244854283</v>
+        <v>1.007802340025923</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.02284925409391</v>
+        <v>0.9845439447408705</v>
       </c>
       <c r="D19">
-        <v>1.028640422557345</v>
+        <v>1.005744435100116</v>
       </c>
       <c r="E19">
-        <v>1.02662618231497</v>
+        <v>0.9942721363275643</v>
       </c>
       <c r="F19">
-        <v>1.019585623044197</v>
+        <v>0.9532415643898796</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031974828946851</v>
+        <v>1.035586420225135</v>
       </c>
       <c r="J19">
-        <v>1.029012988191365</v>
+        <v>1.012065728158304</v>
       </c>
       <c r="K19">
-        <v>1.031975442952046</v>
+        <v>1.01940072798861</v>
       </c>
       <c r="L19">
-        <v>1.029968222089782</v>
+        <v>1.008125399370768</v>
       </c>
       <c r="M19">
-        <v>1.022952438479962</v>
+        <v>0.9678501729351063</v>
       </c>
       <c r="N19">
-        <v>1.013692891674994</v>
+        <v>1.007872925662437</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C20">
-        <v>1.022542864619474</v>
+        <v>0.9829214954582283</v>
       </c>
       <c r="D20">
-        <v>1.028411010283404</v>
+        <v>1.004571616801841</v>
       </c>
       <c r="E20">
-        <v>1.026338951227168</v>
+        <v>0.9928558727390385</v>
       </c>
       <c r="F20">
-        <v>1.019057808122576</v>
+        <v>0.9505493628066624</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031905813789368</v>
+        <v>1.035117758861498</v>
       </c>
       <c r="J20">
-        <v>1.028830972041052</v>
+        <v>1.011127018503516</v>
       </c>
       <c r="K20">
-        <v>1.031811278530653</v>
+        <v>1.018534553356791</v>
       </c>
       <c r="L20">
-        <v>1.029746592838605</v>
+        <v>1.00702551710279</v>
       </c>
       <c r="M20">
-        <v>1.022491622021287</v>
+        <v>0.9655212880363857</v>
       </c>
       <c r="N20">
-        <v>1.013631843700447</v>
+        <v>1.007555969829732</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.021546984600399</v>
+        <v>0.9775388389527018</v>
       </c>
       <c r="D21">
-        <v>1.027665308881012</v>
+        <v>1.000686241371466</v>
       </c>
       <c r="E21">
-        <v>1.025405854528491</v>
+        <v>0.9881658449590939</v>
       </c>
       <c r="F21">
-        <v>1.017341863726</v>
+        <v>0.9415757968167694</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031679886409684</v>
+        <v>1.033550209125643</v>
       </c>
       <c r="J21">
-        <v>1.028238575360874</v>
+        <v>1.008006622934956</v>
       </c>
       <c r="K21">
-        <v>1.031276744105491</v>
+        <v>1.01565462435285</v>
       </c>
       <c r="L21">
-        <v>1.029025871246556</v>
+        <v>1.0033749418758</v>
       </c>
       <c r="M21">
-        <v>1.020992852670643</v>
+        <v>0.9577555344409537</v>
       </c>
       <c r="N21">
-        <v>1.013433087207335</v>
+        <v>1.006502323303341</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.020921006473985</v>
+        <v>0.9740671787483969</v>
       </c>
       <c r="D22">
-        <v>1.027196568117061</v>
+        <v>0.9981849312692817</v>
       </c>
       <c r="E22">
-        <v>1.024819733980232</v>
+        <v>0.9851477446124836</v>
       </c>
       <c r="F22">
-        <v>1.016262979490509</v>
+        <v>0.9357515679525537</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031536647824457</v>
+        <v>1.032529527824595</v>
       </c>
       <c r="J22">
-        <v>1.027865618758127</v>
+        <v>1.005989347606168</v>
       </c>
       <c r="K22">
-        <v>1.03094003425971</v>
+        <v>1.013792430983152</v>
       </c>
       <c r="L22">
-        <v>1.028572585998354</v>
+        <v>1.00101928322517</v>
       </c>
       <c r="M22">
-        <v>1.020050025945034</v>
+        <v>0.9527130930903942</v>
       </c>
       <c r="N22">
-        <v>1.013307904285077</v>
+        <v>1.005821156082085</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.02125283302276</v>
+        <v>0.9759161676480876</v>
       </c>
       <c r="D23">
-        <v>1.027445045661065</v>
+        <v>0.9995166569270075</v>
       </c>
       <c r="E23">
-        <v>1.025130394830335</v>
+        <v>0.9867545129318505</v>
       </c>
       <c r="F23">
-        <v>1.016834918375663</v>
+        <v>0.9388572482625145</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03161269396252</v>
+        <v>1.033074036410203</v>
       </c>
       <c r="J23">
-        <v>1.028063376819084</v>
+        <v>1.007064181027419</v>
       </c>
       <c r="K23">
-        <v>1.031118589826243</v>
+        <v>1.014784661359453</v>
       </c>
       <c r="L23">
-        <v>1.02881289415213</v>
+        <v>1.002273997252817</v>
       </c>
       <c r="M23">
-        <v>1.020549884258946</v>
+        <v>0.9554020755991836</v>
       </c>
       <c r="N23">
-        <v>1.013374286636405</v>
+        <v>1.00618409043983</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.022559563565861</v>
+        <v>0.9830103228665455</v>
       </c>
       <c r="D24">
-        <v>1.028423513897285</v>
+        <v>1.004635807456447</v>
       </c>
       <c r="E24">
-        <v>1.02635460407264</v>
+        <v>0.9929333802774172</v>
       </c>
       <c r="F24">
-        <v>1.019086576518365</v>
+        <v>0.950696903962617</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03190958132224</v>
+        <v>1.035143465250434</v>
       </c>
       <c r="J24">
-        <v>1.028840895276969</v>
+        <v>1.011178434700372</v>
       </c>
       <c r="K24">
-        <v>1.031820229420868</v>
+        <v>1.018581999288852</v>
       </c>
       <c r="L24">
-        <v>1.029758673452641</v>
+        <v>1.007085740661968</v>
       </c>
       <c r="M24">
-        <v>1.022516741098273</v>
+        <v>0.9656489308577432</v>
       </c>
       <c r="N24">
-        <v>1.013635172195688</v>
+        <v>1.007573330766137</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.024076689220818</v>
+        <v>0.990891583388516</v>
       </c>
       <c r="D25">
-        <v>1.029559430746506</v>
+        <v>1.010340212632801</v>
       </c>
       <c r="E25">
-        <v>1.027777625031273</v>
+        <v>0.9998250014779672</v>
       </c>
       <c r="F25">
-        <v>1.021699668433681</v>
+        <v>0.9637231079452488</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.032248919200967</v>
+        <v>1.037401284256548</v>
       </c>
       <c r="J25">
-        <v>1.029741009020861</v>
+        <v>1.015729418928437</v>
       </c>
       <c r="K25">
-        <v>1.032631702391773</v>
+        <v>1.022780103083199</v>
       </c>
       <c r="L25">
-        <v>1.030855581650605</v>
+        <v>1.012426034680625</v>
       </c>
       <c r="M25">
-        <v>1.024797180551787</v>
+        <v>0.9769119521857357</v>
       </c>
       <c r="N25">
-        <v>1.013936967445471</v>
+        <v>1.009109845629401</v>
       </c>
     </row>
   </sheetData>
